--- a/src/com/data/Test Cases Fab4.xlsx
+++ b/src/com/data/Test Cases Fab4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7962" uniqueCount="308">
   <si>
     <t>TCID</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>PL/SP/ST New Prof Cert</t>
+  </si>
+  <si>
+    <t>Supported Scaffold - Sidewalk Shed - Construction Fence New Prof Cert</t>
   </si>
 </sst>
 </file>
@@ -2836,9 +2839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B92" sqref="B92"/>
+      <selection pane="topRight" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -27060,7 +27063,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="22" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="C203" s="39" t="s">
         <v>157</v>
